--- a/sample_data/sample_tabloid.xlsx
+++ b/sample_data/sample_tabloid.xlsx
@@ -8374,8 +8374,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F886"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A246" workbookViewId="0">
-      <selection activeCell="F283" sqref="F283"/>
+    <sheetView tabSelected="1" topLeftCell="A864" workbookViewId="0">
+      <selection activeCell="F887" sqref="F887"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -13780,6 +13780,9 @@
       <c r="E284" t="s">
         <v>2051</v>
       </c>
+      <c r="F284">
+        <v>1</v>
+      </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
@@ -13849,7 +13852,7 @@
         <v>2055</v>
       </c>
     </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -13866,7 +13869,7 @@
         <v>2056</v>
       </c>
     </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -13883,7 +13886,7 @@
         <v>2057</v>
       </c>
     </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -13900,7 +13903,7 @@
         <v>2058</v>
       </c>
     </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -13917,7 +13920,7 @@
         <v>2059</v>
       </c>
     </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -13934,7 +13937,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -13951,7 +13954,7 @@
         <v>2061</v>
       </c>
     </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -13968,7 +13971,7 @@
         <v>2062</v>
       </c>
     </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -13984,8 +13987,11 @@
       <c r="E296" t="s">
         <v>2063</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -14002,7 +14008,7 @@
         <v>2064</v>
       </c>
     </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -14018,8 +14024,11 @@
       <c r="E298" t="s">
         <v>2065</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -14036,7 +14045,7 @@
         <v>2066</v>
       </c>
     </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -14052,8 +14061,11 @@
       <c r="E300" t="s">
         <v>2067</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -14069,8 +14081,11 @@
       <c r="E301" t="s">
         <v>2068</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F301">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -14086,8 +14101,11 @@
       <c r="E302" t="s">
         <v>2069</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F302">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -14103,8 +14121,11 @@
       <c r="E303" t="s">
         <v>2070</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F303">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -14121,7 +14142,7 @@
         <v>2071</v>
       </c>
     </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -14137,8 +14158,11 @@
       <c r="E305" t="s">
         <v>2072</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F305">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -14155,7 +14179,7 @@
         <v>2073</v>
       </c>
     </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -14172,7 +14196,7 @@
         <v>2074</v>
       </c>
     </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -14189,7 +14213,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -14205,8 +14229,11 @@
       <c r="E309" t="s">
         <v>2076</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F309">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -14223,7 +14250,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -14239,8 +14266,11 @@
       <c r="E311" t="s">
         <v>2078</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F311">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -14257,7 +14287,7 @@
         <v>2079</v>
       </c>
     </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -14274,7 +14304,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -14291,7 +14321,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -14307,8 +14337,11 @@
       <c r="E315" t="s">
         <v>2082</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F315">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -14324,8 +14357,11 @@
       <c r="E316" t="s">
         <v>2083</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F316">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -14341,8 +14377,11 @@
       <c r="E317" t="s">
         <v>2084</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F317">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -14358,8 +14397,11 @@
       <c r="E318" t="s">
         <v>2084</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F318">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -14375,8 +14417,11 @@
       <c r="E319" t="s">
         <v>2085</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -14393,7 +14438,7 @@
         <v>2086</v>
       </c>
     </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -14410,7 +14455,7 @@
         <v>2087</v>
       </c>
     </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -14427,7 +14472,7 @@
         <v>2088</v>
       </c>
     </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -14444,7 +14489,7 @@
         <v>2089</v>
       </c>
     </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -14461,7 +14506,7 @@
         <v>2090</v>
       </c>
     </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -14478,7 +14523,7 @@
         <v>2091</v>
       </c>
     </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -14495,7 +14540,7 @@
         <v>2092</v>
       </c>
     </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -14511,8 +14556,11 @@
       <c r="E327" t="s">
         <v>2093</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F327">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -14528,8 +14576,11 @@
       <c r="E328" t="s">
         <v>2094</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F328">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -14546,7 +14597,7 @@
         <v>2095</v>
       </c>
     </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -14563,7 +14614,7 @@
         <v>2096</v>
       </c>
     </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -14580,7 +14631,7 @@
         <v>2097</v>
       </c>
     </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -14596,8 +14647,11 @@
       <c r="E332" t="s">
         <v>2098</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -14613,8 +14667,11 @@
       <c r="E333" t="s">
         <v>2099</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F333">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -14631,7 +14688,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -14648,7 +14705,7 @@
         <v>2101</v>
       </c>
     </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -14664,8 +14721,11 @@
       <c r="E336" t="s">
         <v>2102</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F336">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -14681,8 +14741,11 @@
       <c r="E337" t="s">
         <v>2103</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F337">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -14698,8 +14761,11 @@
       <c r="E338" t="s">
         <v>2104</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F338">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -14715,8 +14781,11 @@
       <c r="E339" t="s">
         <v>2105</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F339">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -14733,7 +14802,7 @@
         <v>2106</v>
       </c>
     </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -14749,8 +14818,11 @@
       <c r="E341" t="s">
         <v>2107</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F341">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -14766,8 +14838,11 @@
       <c r="E342" t="s">
         <v>2108</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -14783,8 +14858,11 @@
       <c r="E343" t="s">
         <v>2109</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -14801,7 +14879,7 @@
         <v>2110</v>
       </c>
     </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -14817,8 +14895,11 @@
       <c r="E345" t="s">
         <v>2111</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F345">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -14834,8 +14915,11 @@
       <c r="E346" t="s">
         <v>2112</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F346">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -14851,8 +14935,11 @@
       <c r="E347" t="s">
         <v>2113</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F347">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -14869,7 +14956,7 @@
         <v>2114</v>
       </c>
     </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -14885,8 +14972,11 @@
       <c r="E349" t="s">
         <v>2115</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -14902,8 +14992,11 @@
       <c r="E350" t="s">
         <v>2116</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F350">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -14919,8 +15012,11 @@
       <c r="E351" t="s">
         <v>2117</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F351">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -14936,8 +15032,11 @@
       <c r="E352" t="s">
         <v>2118</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -14954,7 +15053,7 @@
         <v>2119</v>
       </c>
     </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -14970,8 +15069,11 @@
       <c r="E354" t="s">
         <v>2120</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F354">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -14987,8 +15089,11 @@
       <c r="E355" t="s">
         <v>2121</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -15004,8 +15109,11 @@
       <c r="E356" t="s">
         <v>2122</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F356">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -15022,7 +15130,7 @@
         <v>2123</v>
       </c>
     </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -15038,8 +15146,11 @@
       <c r="E358" t="s">
         <v>2124</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F358">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -15056,7 +15167,7 @@
         <v>2125</v>
       </c>
     </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -15073,7 +15184,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -15089,8 +15200,11 @@
       <c r="E361" t="s">
         <v>2127</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F361">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -15107,7 +15221,7 @@
         <v>2128</v>
       </c>
     </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -15124,7 +15238,7 @@
         <v>2129</v>
       </c>
     </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -15140,8 +15254,11 @@
       <c r="E364" t="s">
         <v>2130</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -15157,8 +15274,11 @@
       <c r="E365" t="s">
         <v>2131</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -15174,8 +15294,11 @@
       <c r="E366" t="s">
         <v>2132</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F366">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -15191,8 +15314,11 @@
       <c r="E367" t="s">
         <v>2133</v>
       </c>
-    </row>
-    <row r="368" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F367">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -15209,7 +15335,7 @@
         <v>2134</v>
       </c>
     </row>
-    <row r="369" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -15225,8 +15351,11 @@
       <c r="E369" t="s">
         <v>2135</v>
       </c>
-    </row>
-    <row r="370" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F369">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -15242,8 +15371,11 @@
       <c r="E370" t="s">
         <v>2136</v>
       </c>
-    </row>
-    <row r="371" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F370">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -15260,7 +15392,7 @@
         <v>2137</v>
       </c>
     </row>
-    <row r="372" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -15277,7 +15409,7 @@
         <v>2138</v>
       </c>
     </row>
-    <row r="373" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -15294,7 +15426,7 @@
         <v>2139</v>
       </c>
     </row>
-    <row r="374" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -15310,8 +15442,11 @@
       <c r="E374" t="s">
         <v>2140</v>
       </c>
-    </row>
-    <row r="375" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F374">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -15328,7 +15463,7 @@
         <v>2141</v>
       </c>
     </row>
-    <row r="376" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -15345,7 +15480,7 @@
         <v>2142</v>
       </c>
     </row>
-    <row r="377" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -15362,7 +15497,7 @@
         <v>2143</v>
       </c>
     </row>
-    <row r="378" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -15379,7 +15514,7 @@
         <v>2144</v>
       </c>
     </row>
-    <row r="379" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -15396,7 +15531,7 @@
         <v>2145</v>
       </c>
     </row>
-    <row r="380" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -15413,7 +15548,7 @@
         <v>2146</v>
       </c>
     </row>
-    <row r="381" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -15429,8 +15564,11 @@
       <c r="E381" t="s">
         <v>2147</v>
       </c>
-    </row>
-    <row r="382" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F381">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -15446,8 +15584,11 @@
       <c r="E382" t="s">
         <v>2148</v>
       </c>
-    </row>
-    <row r="383" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F382">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -15463,8 +15604,11 @@
       <c r="E383" t="s">
         <v>2149</v>
       </c>
-    </row>
-    <row r="384" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F383">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -15481,7 +15625,7 @@
         <v>2150</v>
       </c>
     </row>
-    <row r="385" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -15498,7 +15642,7 @@
         <v>2151</v>
       </c>
     </row>
-    <row r="386" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -15515,7 +15659,7 @@
         <v>2152</v>
       </c>
     </row>
-    <row r="387" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -15532,7 +15676,7 @@
         <v>2153</v>
       </c>
     </row>
-    <row r="388" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -15549,7 +15693,7 @@
         <v>2154</v>
       </c>
     </row>
-    <row r="389" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -15565,8 +15709,11 @@
       <c r="E389" t="s">
         <v>2155</v>
       </c>
-    </row>
-    <row r="390" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F389">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -15582,8 +15729,11 @@
       <c r="E390" t="s">
         <v>2156</v>
       </c>
-    </row>
-    <row r="391" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F390">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -15600,7 +15750,7 @@
         <v>2157</v>
       </c>
     </row>
-    <row r="392" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -15617,7 +15767,7 @@
         <v>2158</v>
       </c>
     </row>
-    <row r="393" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -15634,7 +15784,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="394" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -15651,7 +15801,7 @@
         <v>2160</v>
       </c>
     </row>
-    <row r="395" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -15668,7 +15818,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="396" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -15685,7 +15835,7 @@
         <v>2162</v>
       </c>
     </row>
-    <row r="397" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -15702,7 +15852,7 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="398" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -15719,7 +15869,7 @@
         <v>2164</v>
       </c>
     </row>
-    <row r="399" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -15736,7 +15886,7 @@
         <v>2165</v>
       </c>
     </row>
-    <row r="400" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -15753,7 +15903,7 @@
         <v>2166</v>
       </c>
     </row>
-    <row r="401" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -15769,8 +15919,11 @@
       <c r="E401" t="s">
         <v>2167</v>
       </c>
-    </row>
-    <row r="402" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -15786,8 +15939,11 @@
       <c r="E402" t="s">
         <v>2168</v>
       </c>
-    </row>
-    <row r="403" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F402">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -15804,7 +15960,7 @@
         <v>2169</v>
       </c>
     </row>
-    <row r="404" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -15820,8 +15976,11 @@
       <c r="E404" t="s">
         <v>2170</v>
       </c>
-    </row>
-    <row r="405" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F404">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -15838,7 +15997,7 @@
         <v>2171</v>
       </c>
     </row>
-    <row r="406" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -15855,7 +16014,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="407" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -15872,7 +16031,7 @@
         <v>2173</v>
       </c>
     </row>
-    <row r="408" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -15889,7 +16048,7 @@
         <v>2174</v>
       </c>
     </row>
-    <row r="409" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -15905,8 +16064,11 @@
       <c r="E409" t="s">
         <v>2175</v>
       </c>
-    </row>
-    <row r="410" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F409">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -15923,7 +16085,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="411" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -15940,7 +16102,7 @@
         <v>2177</v>
       </c>
     </row>
-    <row r="412" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -15956,8 +16118,11 @@
       <c r="E412" t="s">
         <v>2178</v>
       </c>
-    </row>
-    <row r="413" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F412">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -15974,7 +16139,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="414" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -15991,7 +16156,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="415" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -16008,7 +16173,7 @@
         <v>2181</v>
       </c>
     </row>
-    <row r="416" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -16025,7 +16190,7 @@
         <v>2182</v>
       </c>
     </row>
-    <row r="417" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -16042,7 +16207,7 @@
         <v>2183</v>
       </c>
     </row>
-    <row r="418" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -16059,7 +16224,7 @@
         <v>2184</v>
       </c>
     </row>
-    <row r="419" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -16076,7 +16241,7 @@
         <v>2185</v>
       </c>
     </row>
-    <row r="420" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -16093,7 +16258,7 @@
         <v>2186</v>
       </c>
     </row>
-    <row r="421" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -16109,8 +16274,11 @@
       <c r="E421" t="s">
         <v>2187</v>
       </c>
-    </row>
-    <row r="422" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F421">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -16127,7 +16295,7 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="423" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -16144,7 +16312,7 @@
         <v>2189</v>
       </c>
     </row>
-    <row r="424" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -16161,7 +16329,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="425" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -16178,7 +16346,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="426" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -16194,8 +16362,11 @@
       <c r="E426" t="s">
         <v>2192</v>
       </c>
-    </row>
-    <row r="427" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F426">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -16212,7 +16383,7 @@
         <v>2193</v>
       </c>
     </row>
-    <row r="428" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -16229,7 +16400,7 @@
         <v>2194</v>
       </c>
     </row>
-    <row r="429" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -16246,7 +16417,7 @@
         <v>2195</v>
       </c>
     </row>
-    <row r="430" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -16262,8 +16433,11 @@
       <c r="E430" t="s">
         <v>2196</v>
       </c>
-    </row>
-    <row r="431" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F430">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -16280,7 +16454,7 @@
         <v>2197</v>
       </c>
     </row>
-    <row r="432" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -16297,7 +16471,7 @@
         <v>2198</v>
       </c>
     </row>
-    <row r="433" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -16314,7 +16488,7 @@
         <v>2199</v>
       </c>
     </row>
-    <row r="434" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -16330,8 +16504,11 @@
       <c r="E434" t="s">
         <v>2200</v>
       </c>
-    </row>
-    <row r="435" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F434">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -16348,7 +16525,7 @@
         <v>2201</v>
       </c>
     </row>
-    <row r="436" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -16364,8 +16541,11 @@
       <c r="E436" t="s">
         <v>2202</v>
       </c>
-    </row>
-    <row r="437" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F436">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -16382,7 +16562,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="438" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -16399,7 +16579,7 @@
         <v>2204</v>
       </c>
     </row>
-    <row r="439" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -16416,7 +16596,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="440" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -16432,8 +16612,11 @@
       <c r="E440" t="s">
         <v>2206</v>
       </c>
-    </row>
-    <row r="441" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F440">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -16450,7 +16633,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="442" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -16467,7 +16650,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="443" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -16484,7 +16667,7 @@
         <v>2209</v>
       </c>
     </row>
-    <row r="444" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -16501,7 +16684,7 @@
         <v>2210</v>
       </c>
     </row>
-    <row r="445" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -16518,7 +16701,7 @@
         <v>2211</v>
       </c>
     </row>
-    <row r="446" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -16534,8 +16717,11 @@
       <c r="E446" t="s">
         <v>2212</v>
       </c>
-    </row>
-    <row r="447" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F446">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -16552,7 +16738,7 @@
         <v>2213</v>
       </c>
     </row>
-    <row r="448" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -16569,7 +16755,7 @@
         <v>2214</v>
       </c>
     </row>
-    <row r="449" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -16585,8 +16771,11 @@
       <c r="E449" t="s">
         <v>2215</v>
       </c>
-    </row>
-    <row r="450" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F449">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -16603,7 +16792,7 @@
         <v>2216</v>
       </c>
     </row>
-    <row r="451" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -16620,7 +16809,7 @@
         <v>2217</v>
       </c>
     </row>
-    <row r="452" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -16637,7 +16826,7 @@
         <v>2218</v>
       </c>
     </row>
-    <row r="453" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -16654,7 +16843,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="454" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -16671,7 +16860,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="455" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -16688,7 +16877,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="456" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -16705,7 +16894,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="457" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -16722,7 +16911,7 @@
         <v>2222</v>
       </c>
     </row>
-    <row r="458" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -16739,7 +16928,7 @@
         <v>2223</v>
       </c>
     </row>
-    <row r="459" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -16756,7 +16945,7 @@
         <v>2224</v>
       </c>
     </row>
-    <row r="460" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -16772,8 +16961,11 @@
       <c r="E460" t="s">
         <v>2225</v>
       </c>
-    </row>
-    <row r="461" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F460">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -16790,7 +16982,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="462" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -16807,7 +16999,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="463" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -16824,7 +17016,7 @@
         <v>2228</v>
       </c>
     </row>
-    <row r="464" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -16841,7 +17033,7 @@
         <v>2229</v>
       </c>
     </row>
-    <row r="465" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -16858,7 +17050,7 @@
         <v>2230</v>
       </c>
     </row>
-    <row r="466" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -16875,7 +17067,7 @@
         <v>2231</v>
       </c>
     </row>
-    <row r="467" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -16892,7 +17084,7 @@
         <v>2232</v>
       </c>
     </row>
-    <row r="468" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -16909,7 +17101,7 @@
         <v>2233</v>
       </c>
     </row>
-    <row r="469" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -16926,7 +17118,7 @@
         <v>2234</v>
       </c>
     </row>
-    <row r="470" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -16943,7 +17135,7 @@
         <v>2235</v>
       </c>
     </row>
-    <row r="471" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -16960,7 +17152,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="472" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -16977,7 +17169,7 @@
         <v>2237</v>
       </c>
     </row>
-    <row r="473" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -16994,7 +17186,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="474" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -17011,7 +17203,7 @@
         <v>2239</v>
       </c>
     </row>
-    <row r="475" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -17028,7 +17220,7 @@
         <v>2240</v>
       </c>
     </row>
-    <row r="476" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -17045,7 +17237,7 @@
         <v>2241</v>
       </c>
     </row>
-    <row r="477" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -17061,8 +17253,11 @@
       <c r="E477" t="s">
         <v>2242</v>
       </c>
-    </row>
-    <row r="478" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F477">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -17078,8 +17273,11 @@
       <c r="E478" t="s">
         <v>2243</v>
       </c>
-    </row>
-    <row r="479" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F478">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -17096,7 +17294,7 @@
         <v>2244</v>
       </c>
     </row>
-    <row r="480" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -17113,7 +17311,7 @@
         <v>2245</v>
       </c>
     </row>
-    <row r="481" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -17130,7 +17328,7 @@
         <v>2246</v>
       </c>
     </row>
-    <row r="482" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -17147,7 +17345,7 @@
         <v>2247</v>
       </c>
     </row>
-    <row r="483" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -17164,7 +17362,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="484" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -17180,8 +17378,11 @@
       <c r="E484" t="s">
         <v>2249</v>
       </c>
-    </row>
-    <row r="485" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F484">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -17198,7 +17399,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="486" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -17215,7 +17416,7 @@
         <v>2251</v>
       </c>
     </row>
-    <row r="487" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -17232,7 +17433,7 @@
         <v>2252</v>
       </c>
     </row>
-    <row r="488" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -17249,7 +17450,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="489" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -17266,7 +17467,7 @@
         <v>2254</v>
       </c>
     </row>
-    <row r="490" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -17283,7 +17484,7 @@
         <v>2255</v>
       </c>
     </row>
-    <row r="491" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -17300,7 +17501,7 @@
         <v>2256</v>
       </c>
     </row>
-    <row r="492" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -17317,7 +17518,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="493" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -17334,7 +17535,7 @@
         <v>2258</v>
       </c>
     </row>
-    <row r="494" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -17350,8 +17551,11 @@
       <c r="E494" t="s">
         <v>2259</v>
       </c>
-    </row>
-    <row r="495" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F494">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -17368,7 +17572,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="496" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -17385,7 +17589,7 @@
         <v>2261</v>
       </c>
     </row>
-    <row r="497" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -17402,7 +17606,7 @@
         <v>2262</v>
       </c>
     </row>
-    <row r="498" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -17419,7 +17623,7 @@
         <v>2263</v>
       </c>
     </row>
-    <row r="499" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -17436,7 +17640,7 @@
         <v>2264</v>
       </c>
     </row>
-    <row r="500" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -17453,7 +17657,7 @@
         <v>2265</v>
       </c>
     </row>
-    <row r="501" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -17470,7 +17674,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="502" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -17487,7 +17691,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="503" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -17504,7 +17708,7 @@
         <v>2268</v>
       </c>
     </row>
-    <row r="504" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -17520,8 +17724,11 @@
       <c r="E504" t="s">
         <v>2269</v>
       </c>
-    </row>
-    <row r="505" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F504">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -17537,8 +17744,11 @@
       <c r="E505" t="s">
         <v>2270</v>
       </c>
-    </row>
-    <row r="506" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F505">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -17555,7 +17765,7 @@
         <v>2271</v>
       </c>
     </row>
-    <row r="507" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -17571,8 +17781,11 @@
       <c r="E507" t="s">
         <v>2272</v>
       </c>
-    </row>
-    <row r="508" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F507">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -17588,8 +17801,11 @@
       <c r="E508" t="s">
         <v>2273</v>
       </c>
-    </row>
-    <row r="509" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F508">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -17606,7 +17822,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="510" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -17623,7 +17839,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="511" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -17640,7 +17856,7 @@
         <v>2276</v>
       </c>
     </row>
-    <row r="512" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -17657,7 +17873,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="513" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -17674,7 +17890,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="514" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -17691,7 +17907,7 @@
         <v>2279</v>
       </c>
     </row>
-    <row r="515" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -17707,8 +17923,11 @@
       <c r="E515" t="s">
         <v>2280</v>
       </c>
-    </row>
-    <row r="516" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F515">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -17724,8 +17943,11 @@
       <c r="E516" t="s">
         <v>2281</v>
       </c>
-    </row>
-    <row r="517" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F516">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -17741,8 +17963,11 @@
       <c r="E517" t="s">
         <v>2282</v>
       </c>
-    </row>
-    <row r="518" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F517">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -17759,7 +17984,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="519" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -17775,8 +18000,11 @@
       <c r="E519" t="s">
         <v>2284</v>
       </c>
-    </row>
-    <row r="520" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F519">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -17793,7 +18021,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="521" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -17810,7 +18038,7 @@
         <v>2286</v>
       </c>
     </row>
-    <row r="522" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -17827,7 +18055,7 @@
         <v>2287</v>
       </c>
     </row>
-    <row r="523" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -17844,7 +18072,7 @@
         <v>2288</v>
       </c>
     </row>
-    <row r="524" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -17861,7 +18089,7 @@
         <v>2289</v>
       </c>
     </row>
-    <row r="525" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -17878,7 +18106,7 @@
         <v>2290</v>
       </c>
     </row>
-    <row r="526" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -17895,7 +18123,7 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="527" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -17912,7 +18140,7 @@
         <v>2292</v>
       </c>
     </row>
-    <row r="528" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -17929,7 +18157,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="529" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -17946,7 +18174,7 @@
         <v>2294</v>
       </c>
     </row>
-    <row r="530" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -17963,7 +18191,7 @@
         <v>2295</v>
       </c>
     </row>
-    <row r="531" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -17980,7 +18208,7 @@
         <v>2296</v>
       </c>
     </row>
-    <row r="532" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -17997,7 +18225,7 @@
         <v>2297</v>
       </c>
     </row>
-    <row r="533" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -18013,8 +18241,11 @@
       <c r="E533" t="s">
         <v>2298</v>
       </c>
-    </row>
-    <row r="534" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F533">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -18031,7 +18262,7 @@
         <v>2299</v>
       </c>
     </row>
-    <row r="535" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -18048,7 +18279,7 @@
         <v>2300</v>
       </c>
     </row>
-    <row r="536" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -18065,7 +18296,7 @@
         <v>2301</v>
       </c>
     </row>
-    <row r="537" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -18082,7 +18313,7 @@
         <v>2302</v>
       </c>
     </row>
-    <row r="538" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -18098,8 +18329,11 @@
       <c r="E538" t="s">
         <v>2303</v>
       </c>
-    </row>
-    <row r="539" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F538">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -18116,7 +18350,7 @@
         <v>2304</v>
       </c>
     </row>
-    <row r="540" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -18133,7 +18367,7 @@
         <v>2305</v>
       </c>
     </row>
-    <row r="541" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -18149,8 +18383,11 @@
       <c r="E541" t="s">
         <v>2306</v>
       </c>
-    </row>
-    <row r="542" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F541">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -18167,7 +18404,7 @@
         <v>2307</v>
       </c>
     </row>
-    <row r="543" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -18184,7 +18421,7 @@
         <v>2308</v>
       </c>
     </row>
-    <row r="544" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -18201,7 +18438,7 @@
         <v>2309</v>
       </c>
     </row>
-    <row r="545" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -18218,7 +18455,7 @@
         <v>2310</v>
       </c>
     </row>
-    <row r="546" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -18235,7 +18472,7 @@
         <v>2311</v>
       </c>
     </row>
-    <row r="547" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -18251,8 +18488,11 @@
       <c r="E547" t="s">
         <v>2312</v>
       </c>
-    </row>
-    <row r="548" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F547">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -18269,7 +18509,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="549" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -18286,7 +18526,7 @@
         <v>2314</v>
       </c>
     </row>
-    <row r="550" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -18302,8 +18542,11 @@
       <c r="E550" t="s">
         <v>2315</v>
       </c>
-    </row>
-    <row r="551" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F550">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -18319,8 +18562,11 @@
       <c r="E551" t="s">
         <v>2316</v>
       </c>
-    </row>
-    <row r="552" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F551">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -18336,8 +18582,11 @@
       <c r="E552" t="s">
         <v>2317</v>
       </c>
-    </row>
-    <row r="553" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F552">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -18353,8 +18602,11 @@
       <c r="E553" t="s">
         <v>2318</v>
       </c>
-    </row>
-    <row r="554" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F553">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -18371,7 +18623,7 @@
         <v>2319</v>
       </c>
     </row>
-    <row r="555" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -18388,7 +18640,7 @@
         <v>2320</v>
       </c>
     </row>
-    <row r="556" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -18405,7 +18657,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="557" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -18421,8 +18673,11 @@
       <c r="E557" t="s">
         <v>2322</v>
       </c>
-    </row>
-    <row r="558" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F557">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -18439,7 +18694,7 @@
         <v>2323</v>
       </c>
     </row>
-    <row r="559" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -18456,7 +18711,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="560" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -18472,8 +18727,11 @@
       <c r="E560" t="s">
         <v>2325</v>
       </c>
-    </row>
-    <row r="561" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F560">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -18490,7 +18748,7 @@
         <v>2326</v>
       </c>
     </row>
-    <row r="562" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -18507,7 +18765,7 @@
         <v>2327</v>
       </c>
     </row>
-    <row r="563" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -18523,8 +18781,11 @@
       <c r="E563" t="s">
         <v>2328</v>
       </c>
-    </row>
-    <row r="564" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F563">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -18541,7 +18802,7 @@
         <v>2329</v>
       </c>
     </row>
-    <row r="565" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -18558,7 +18819,7 @@
         <v>2330</v>
       </c>
     </row>
-    <row r="566" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -18575,7 +18836,7 @@
         <v>2331</v>
       </c>
     </row>
-    <row r="567" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -18592,7 +18853,7 @@
         <v>2332</v>
       </c>
     </row>
-    <row r="568" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>566</v>
       </c>
@@ -18609,7 +18870,7 @@
         <v>2333</v>
       </c>
     </row>
-    <row r="569" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>567</v>
       </c>
@@ -18625,8 +18886,11 @@
       <c r="E569" t="s">
         <v>2334</v>
       </c>
-    </row>
-    <row r="570" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F569">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>568</v>
       </c>
@@ -18642,8 +18906,11 @@
       <c r="E570" t="s">
         <v>2335</v>
       </c>
-    </row>
-    <row r="571" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F570">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>569</v>
       </c>
@@ -18660,7 +18927,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="572" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>570</v>
       </c>
@@ -18677,7 +18944,7 @@
         <v>2337</v>
       </c>
     </row>
-    <row r="573" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>571</v>
       </c>
@@ -18694,7 +18961,7 @@
         <v>2338</v>
       </c>
     </row>
-    <row r="574" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>572</v>
       </c>
@@ -18711,7 +18978,7 @@
         <v>2339</v>
       </c>
     </row>
-    <row r="575" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>573</v>
       </c>
@@ -18728,7 +18995,7 @@
         <v>2340</v>
       </c>
     </row>
-    <row r="576" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>574</v>
       </c>
@@ -18745,7 +19012,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="577" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>575</v>
       </c>
@@ -18762,7 +19029,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="578" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>576</v>
       </c>
@@ -18779,7 +19046,7 @@
         <v>2343</v>
       </c>
     </row>
-    <row r="579" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>577</v>
       </c>
@@ -18796,7 +19063,7 @@
         <v>2344</v>
       </c>
     </row>
-    <row r="580" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>578</v>
       </c>
@@ -18812,8 +19079,11 @@
       <c r="E580" t="s">
         <v>2345</v>
       </c>
-    </row>
-    <row r="581" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F580">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>579</v>
       </c>
@@ -18830,7 +19100,7 @@
         <v>2346</v>
       </c>
     </row>
-    <row r="582" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>580</v>
       </c>
@@ -18847,7 +19117,7 @@
         <v>2347</v>
       </c>
     </row>
-    <row r="583" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>581</v>
       </c>
@@ -18863,8 +19133,11 @@
       <c r="E583" t="s">
         <v>2348</v>
       </c>
-    </row>
-    <row r="584" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F583">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>582</v>
       </c>
@@ -18881,7 +19154,7 @@
         <v>2349</v>
       </c>
     </row>
-    <row r="585" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>583</v>
       </c>
@@ -18898,7 +19171,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="586" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>584</v>
       </c>
@@ -18915,7 +19188,7 @@
         <v>2351</v>
       </c>
     </row>
-    <row r="587" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>585</v>
       </c>
@@ -18932,7 +19205,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="588" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>586</v>
       </c>
@@ -18949,7 +19222,7 @@
         <v>2353</v>
       </c>
     </row>
-    <row r="589" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>587</v>
       </c>
@@ -18966,7 +19239,7 @@
         <v>2354</v>
       </c>
     </row>
-    <row r="590" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>588</v>
       </c>
@@ -18983,7 +19256,7 @@
         <v>2355</v>
       </c>
     </row>
-    <row r="591" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>589</v>
       </c>
@@ -19000,7 +19273,7 @@
         <v>2356</v>
       </c>
     </row>
-    <row r="592" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>590</v>
       </c>
@@ -19017,7 +19290,7 @@
         <v>2357</v>
       </c>
     </row>
-    <row r="593" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>591</v>
       </c>
@@ -19034,7 +19307,7 @@
         <v>2358</v>
       </c>
     </row>
-    <row r="594" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>592</v>
       </c>
@@ -19051,7 +19324,7 @@
         <v>2359</v>
       </c>
     </row>
-    <row r="595" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>593</v>
       </c>
@@ -19068,7 +19341,7 @@
         <v>2360</v>
       </c>
     </row>
-    <row r="596" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>594</v>
       </c>
@@ -19085,7 +19358,7 @@
         <v>2361</v>
       </c>
     </row>
-    <row r="597" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>595</v>
       </c>
@@ -19102,7 +19375,7 @@
         <v>2362</v>
       </c>
     </row>
-    <row r="598" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>596</v>
       </c>
@@ -19118,8 +19391,11 @@
       <c r="E598" t="s">
         <v>2363</v>
       </c>
-    </row>
-    <row r="599" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F598">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>597</v>
       </c>
@@ -19135,8 +19411,11 @@
       <c r="E599" t="s">
         <v>2364</v>
       </c>
-    </row>
-    <row r="600" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F599">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>598</v>
       </c>
@@ -19152,8 +19431,11 @@
       <c r="E600" t="s">
         <v>2365</v>
       </c>
-    </row>
-    <row r="601" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F600">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>599</v>
       </c>
@@ -19169,8 +19451,11 @@
       <c r="E601" t="s">
         <v>2366</v>
       </c>
-    </row>
-    <row r="602" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F601">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>600</v>
       </c>
@@ -19187,7 +19472,7 @@
         <v>2367</v>
       </c>
     </row>
-    <row r="603" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>601</v>
       </c>
@@ -19203,8 +19488,11 @@
       <c r="E603" t="s">
         <v>2368</v>
       </c>
-    </row>
-    <row r="604" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F603">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>602</v>
       </c>
@@ -19221,7 +19509,7 @@
         <v>2369</v>
       </c>
     </row>
-    <row r="605" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>603</v>
       </c>
@@ -19237,8 +19525,11 @@
       <c r="E605" t="s">
         <v>2370</v>
       </c>
-    </row>
-    <row r="606" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F605">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>604</v>
       </c>
@@ -19255,7 +19546,7 @@
         <v>2371</v>
       </c>
     </row>
-    <row r="607" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>605</v>
       </c>
@@ -19272,7 +19563,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="608" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>606</v>
       </c>
@@ -19289,7 +19580,7 @@
         <v>2373</v>
       </c>
     </row>
-    <row r="609" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>607</v>
       </c>
@@ -19306,7 +19597,7 @@
         <v>2374</v>
       </c>
     </row>
-    <row r="610" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>608</v>
       </c>
@@ -19323,7 +19614,7 @@
         <v>2375</v>
       </c>
     </row>
-    <row r="611" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>609</v>
       </c>
@@ -19339,8 +19630,11 @@
       <c r="E611" t="s">
         <v>2376</v>
       </c>
-    </row>
-    <row r="612" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F611">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>610</v>
       </c>
@@ -19356,8 +19650,11 @@
       <c r="E612" t="s">
         <v>2377</v>
       </c>
-    </row>
-    <row r="613" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F612">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>611</v>
       </c>
@@ -19373,8 +19670,11 @@
       <c r="E613" t="s">
         <v>2378</v>
       </c>
-    </row>
-    <row r="614" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F613">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>612</v>
       </c>
@@ -19390,8 +19690,11 @@
       <c r="E614" t="s">
         <v>2379</v>
       </c>
-    </row>
-    <row r="615" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F614">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>613</v>
       </c>
@@ -19408,7 +19711,7 @@
         <v>2380</v>
       </c>
     </row>
-    <row r="616" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>614</v>
       </c>
@@ -19425,7 +19728,7 @@
         <v>2381</v>
       </c>
     </row>
-    <row r="617" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>615</v>
       </c>
@@ -19441,8 +19744,11 @@
       <c r="E617" t="s">
         <v>2382</v>
       </c>
-    </row>
-    <row r="618" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F617">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>616</v>
       </c>
@@ -19458,8 +19764,11 @@
       <c r="E618" t="s">
         <v>2383</v>
       </c>
-    </row>
-    <row r="619" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F618">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>617</v>
       </c>
@@ -19476,7 +19785,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="620" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>618</v>
       </c>
@@ -19493,7 +19802,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="621" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>619</v>
       </c>
@@ -19509,8 +19818,11 @@
       <c r="E621" t="s">
         <v>2386</v>
       </c>
-    </row>
-    <row r="622" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F621">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>620</v>
       </c>
@@ -19527,7 +19839,7 @@
         <v>2387</v>
       </c>
     </row>
-    <row r="623" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>621</v>
       </c>
@@ -19543,8 +19855,11 @@
       <c r="E623" t="s">
         <v>2388</v>
       </c>
-    </row>
-    <row r="624" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F623">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>622</v>
       </c>
@@ -19561,7 +19876,7 @@
         <v>2389</v>
       </c>
     </row>
-    <row r="625" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>623</v>
       </c>
@@ -19578,7 +19893,7 @@
         <v>2390</v>
       </c>
     </row>
-    <row r="626" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>624</v>
       </c>
@@ -19594,8 +19909,11 @@
       <c r="E626" t="s">
         <v>2391</v>
       </c>
-    </row>
-    <row r="627" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F626">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>625</v>
       </c>
@@ -19612,7 +19930,7 @@
         <v>2392</v>
       </c>
     </row>
-    <row r="628" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>626</v>
       </c>
@@ -19628,8 +19946,11 @@
       <c r="E628" t="s">
         <v>2393</v>
       </c>
-    </row>
-    <row r="629" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F628">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>627</v>
       </c>
@@ -19645,8 +19966,11 @@
       <c r="E629" t="s">
         <v>2394</v>
       </c>
-    </row>
-    <row r="630" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F629">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>628</v>
       </c>
@@ -19662,8 +19986,11 @@
       <c r="E630" t="s">
         <v>2395</v>
       </c>
-    </row>
-    <row r="631" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F630">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>629</v>
       </c>
@@ -19680,7 +20007,7 @@
         <v>2396</v>
       </c>
     </row>
-    <row r="632" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>630</v>
       </c>
@@ -19697,7 +20024,7 @@
         <v>2397</v>
       </c>
     </row>
-    <row r="633" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>631</v>
       </c>
@@ -19713,8 +20040,11 @@
       <c r="E633" t="s">
         <v>2398</v>
       </c>
-    </row>
-    <row r="634" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F633">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>632</v>
       </c>
@@ -19731,7 +20061,7 @@
         <v>2399</v>
       </c>
     </row>
-    <row r="635" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>633</v>
       </c>
@@ -19747,8 +20077,11 @@
       <c r="E635" t="s">
         <v>2400</v>
       </c>
-    </row>
-    <row r="636" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F635">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>634</v>
       </c>
@@ -19764,8 +20097,11 @@
       <c r="E636" t="s">
         <v>2401</v>
       </c>
-    </row>
-    <row r="637" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F636">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>635</v>
       </c>
@@ -19781,8 +20117,11 @@
       <c r="E637" t="s">
         <v>2402</v>
       </c>
-    </row>
-    <row r="638" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F637">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>636</v>
       </c>
@@ -19798,8 +20137,11 @@
       <c r="E638" t="s">
         <v>2403</v>
       </c>
-    </row>
-    <row r="639" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F638">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>637</v>
       </c>
@@ -19816,7 +20158,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="640" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>638</v>
       </c>
@@ -19833,7 +20175,7 @@
         <v>2405</v>
       </c>
     </row>
-    <row r="641" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>639</v>
       </c>
@@ -19850,7 +20192,7 @@
         <v>2406</v>
       </c>
     </row>
-    <row r="642" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>640</v>
       </c>
@@ -19867,7 +20209,7 @@
         <v>2407</v>
       </c>
     </row>
-    <row r="643" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>641</v>
       </c>
@@ -19883,8 +20225,11 @@
       <c r="E643" t="s">
         <v>2408</v>
       </c>
-    </row>
-    <row r="644" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F643">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>642</v>
       </c>
@@ -19900,8 +20245,11 @@
       <c r="E644" t="s">
         <v>2409</v>
       </c>
-    </row>
-    <row r="645" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F644">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>643</v>
       </c>
@@ -19918,7 +20266,7 @@
         <v>2410</v>
       </c>
     </row>
-    <row r="646" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>644</v>
       </c>
@@ -19935,7 +20283,7 @@
         <v>2411</v>
       </c>
     </row>
-    <row r="647" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>645</v>
       </c>
@@ -19952,7 +20300,7 @@
         <v>2412</v>
       </c>
     </row>
-    <row r="648" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>646</v>
       </c>
@@ -19969,7 +20317,7 @@
         <v>2413</v>
       </c>
     </row>
-    <row r="649" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>647</v>
       </c>
@@ -19985,8 +20333,11 @@
       <c r="E649" t="s">
         <v>2414</v>
       </c>
-    </row>
-    <row r="650" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F649">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>648</v>
       </c>
@@ -20003,7 +20354,7 @@
         <v>2415</v>
       </c>
     </row>
-    <row r="651" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>649</v>
       </c>
@@ -20019,8 +20370,11 @@
       <c r="E651" t="s">
         <v>2416</v>
       </c>
-    </row>
-    <row r="652" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F651">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>650</v>
       </c>
@@ -20036,8 +20390,11 @@
       <c r="E652" t="s">
         <v>2417</v>
       </c>
-    </row>
-    <row r="653" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F652">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>651</v>
       </c>
@@ -20053,8 +20410,11 @@
       <c r="E653" t="s">
         <v>2418</v>
       </c>
-    </row>
-    <row r="654" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F653">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>652</v>
       </c>
@@ -20071,7 +20431,7 @@
         <v>2419</v>
       </c>
     </row>
-    <row r="655" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>653</v>
       </c>
@@ -20088,7 +20448,7 @@
         <v>2420</v>
       </c>
     </row>
-    <row r="656" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>654</v>
       </c>
@@ -20105,7 +20465,7 @@
         <v>2421</v>
       </c>
     </row>
-    <row r="657" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>655</v>
       </c>
@@ -20122,7 +20482,7 @@
         <v>2422</v>
       </c>
     </row>
-    <row r="658" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>656</v>
       </c>
@@ -20138,8 +20498,11 @@
       <c r="E658" t="s">
         <v>2423</v>
       </c>
-    </row>
-    <row r="659" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F658">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>657</v>
       </c>
@@ -20155,8 +20518,11 @@
       <c r="E659" t="s">
         <v>2424</v>
       </c>
-    </row>
-    <row r="660" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F659">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>658</v>
       </c>
@@ -20173,7 +20539,7 @@
         <v>2425</v>
       </c>
     </row>
-    <row r="661" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>659</v>
       </c>
@@ -20190,7 +20556,7 @@
         <v>2426</v>
       </c>
     </row>
-    <row r="662" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>660</v>
       </c>
@@ -20207,7 +20573,7 @@
         <v>2427</v>
       </c>
     </row>
-    <row r="663" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>661</v>
       </c>
@@ -20224,7 +20590,7 @@
         <v>2428</v>
       </c>
     </row>
-    <row r="664" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>662</v>
       </c>
@@ -20241,7 +20607,7 @@
         <v>2429</v>
       </c>
     </row>
-    <row r="665" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>663</v>
       </c>
@@ -20258,7 +20624,7 @@
         <v>2430</v>
       </c>
     </row>
-    <row r="666" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>664</v>
       </c>
@@ -20275,7 +20641,7 @@
         <v>2431</v>
       </c>
     </row>
-    <row r="667" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>665</v>
       </c>
@@ -20292,7 +20658,7 @@
         <v>2432</v>
       </c>
     </row>
-    <row r="668" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>666</v>
       </c>
@@ -20309,7 +20675,7 @@
         <v>2433</v>
       </c>
     </row>
-    <row r="669" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>667</v>
       </c>
@@ -20326,7 +20692,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="670" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>668</v>
       </c>
@@ -20343,7 +20709,7 @@
         <v>2435</v>
       </c>
     </row>
-    <row r="671" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>669</v>
       </c>
@@ -20360,7 +20726,7 @@
         <v>2436</v>
       </c>
     </row>
-    <row r="672" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>670</v>
       </c>
@@ -20377,7 +20743,7 @@
         <v>2437</v>
       </c>
     </row>
-    <row r="673" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>671</v>
       </c>
@@ -20394,7 +20760,7 @@
         <v>2438</v>
       </c>
     </row>
-    <row r="674" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>672</v>
       </c>
@@ -20411,7 +20777,7 @@
         <v>2439</v>
       </c>
     </row>
-    <row r="675" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>673</v>
       </c>
@@ -20428,7 +20794,7 @@
         <v>2440</v>
       </c>
     </row>
-    <row r="676" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>674</v>
       </c>
@@ -20445,7 +20811,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="677" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>675</v>
       </c>
@@ -20462,7 +20828,7 @@
         <v>2442</v>
       </c>
     </row>
-    <row r="678" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>676</v>
       </c>
@@ -20478,8 +20844,11 @@
       <c r="E678" t="s">
         <v>2443</v>
       </c>
-    </row>
-    <row r="679" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F678">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>677</v>
       </c>
@@ -20496,7 +20865,7 @@
         <v>2444</v>
       </c>
     </row>
-    <row r="680" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>678</v>
       </c>
@@ -20512,8 +20881,11 @@
       <c r="E680" t="s">
         <v>2445</v>
       </c>
-    </row>
-    <row r="681" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F680">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>679</v>
       </c>
@@ -20530,7 +20902,7 @@
         <v>2446</v>
       </c>
     </row>
-    <row r="682" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>680</v>
       </c>
@@ -20546,8 +20918,11 @@
       <c r="E682" t="s">
         <v>2447</v>
       </c>
-    </row>
-    <row r="683" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F682">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>681</v>
       </c>
@@ -20563,8 +20938,11 @@
       <c r="E683" t="s">
         <v>2448</v>
       </c>
-    </row>
-    <row r="684" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F683">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>682</v>
       </c>
@@ -20581,7 +20959,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="685" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>683</v>
       </c>
@@ -20598,7 +20976,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="686" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>684</v>
       </c>
@@ -20615,7 +20993,7 @@
         <v>2451</v>
       </c>
     </row>
-    <row r="687" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>685</v>
       </c>
@@ -20632,7 +21010,7 @@
         <v>2452</v>
       </c>
     </row>
-    <row r="688" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>686</v>
       </c>
@@ -20649,7 +21027,7 @@
         <v>2453</v>
       </c>
     </row>
-    <row r="689" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>687</v>
       </c>
@@ -20665,8 +21043,11 @@
       <c r="E689" t="s">
         <v>2454</v>
       </c>
-    </row>
-    <row r="690" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F689">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>688</v>
       </c>
@@ -20683,7 +21064,7 @@
         <v>2455</v>
       </c>
     </row>
-    <row r="691" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>689</v>
       </c>
@@ -20700,7 +21081,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="692" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>690</v>
       </c>
@@ -20717,7 +21098,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="693" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>691</v>
       </c>
@@ -20734,7 +21115,7 @@
         <v>2458</v>
       </c>
     </row>
-    <row r="694" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>692</v>
       </c>
@@ -20751,7 +21132,7 @@
         <v>2459</v>
       </c>
     </row>
-    <row r="695" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>693</v>
       </c>
@@ -20768,7 +21149,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="696" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>694</v>
       </c>
@@ -20784,8 +21165,11 @@
       <c r="E696" t="s">
         <v>2461</v>
       </c>
-    </row>
-    <row r="697" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F696">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>695</v>
       </c>
@@ -20802,7 +21186,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="698" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>696</v>
       </c>
@@ -20819,7 +21203,7 @@
         <v>2463</v>
       </c>
     </row>
-    <row r="699" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>697</v>
       </c>
@@ -20836,7 +21220,7 @@
         <v>2464</v>
       </c>
     </row>
-    <row r="700" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>698</v>
       </c>
@@ -20853,7 +21237,7 @@
         <v>2465</v>
       </c>
     </row>
-    <row r="701" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>699</v>
       </c>
@@ -20869,8 +21253,11 @@
       <c r="E701" t="s">
         <v>2466</v>
       </c>
-    </row>
-    <row r="702" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F701">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>700</v>
       </c>
@@ -20887,7 +21274,7 @@
         <v>2467</v>
       </c>
     </row>
-    <row r="703" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>701</v>
       </c>
@@ -20904,7 +21291,7 @@
         <v>2468</v>
       </c>
     </row>
-    <row r="704" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>702</v>
       </c>
@@ -20920,8 +21307,11 @@
       <c r="E704" t="s">
         <v>2469</v>
       </c>
-    </row>
-    <row r="705" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F704">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>703</v>
       </c>
@@ -20937,8 +21327,11 @@
       <c r="E705" t="s">
         <v>2469</v>
       </c>
-    </row>
-    <row r="706" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F705">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>704</v>
       </c>
@@ -20954,8 +21347,11 @@
       <c r="E706" t="s">
         <v>2470</v>
       </c>
-    </row>
-    <row r="707" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F706">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>705</v>
       </c>
@@ -20971,8 +21367,11 @@
       <c r="E707" t="s">
         <v>2471</v>
       </c>
-    </row>
-    <row r="708" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F707">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>706</v>
       </c>
@@ -20989,7 +21388,7 @@
         <v>2472</v>
       </c>
     </row>
-    <row r="709" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>707</v>
       </c>
@@ -21006,7 +21405,7 @@
         <v>2473</v>
       </c>
     </row>
-    <row r="710" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>708</v>
       </c>
@@ -21023,7 +21422,7 @@
         <v>2474</v>
       </c>
     </row>
-    <row r="711" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A711" s="1">
         <v>709</v>
       </c>
@@ -21040,7 +21439,7 @@
         <v>2475</v>
       </c>
     </row>
-    <row r="712" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A712" s="1">
         <v>710</v>
       </c>
@@ -21057,7 +21456,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="713" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A713" s="1">
         <v>711</v>
       </c>
@@ -21073,8 +21472,11 @@
       <c r="E713" t="s">
         <v>2477</v>
       </c>
-    </row>
-    <row r="714" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F713">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A714" s="1">
         <v>712</v>
       </c>
@@ -21090,8 +21492,11 @@
       <c r="E714" t="s">
         <v>2478</v>
       </c>
-    </row>
-    <row r="715" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F714">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A715" s="1">
         <v>713</v>
       </c>
@@ -21107,8 +21512,11 @@
       <c r="E715" t="s">
         <v>2479</v>
       </c>
-    </row>
-    <row r="716" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F715">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A716" s="1">
         <v>714</v>
       </c>
@@ -21125,7 +21533,7 @@
         <v>2480</v>
       </c>
     </row>
-    <row r="717" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A717" s="1">
         <v>715</v>
       </c>
@@ -21142,7 +21550,7 @@
         <v>2481</v>
       </c>
     </row>
-    <row r="718" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A718" s="1">
         <v>716</v>
       </c>
@@ -21158,8 +21566,11 @@
       <c r="E718" t="s">
         <v>2482</v>
       </c>
-    </row>
-    <row r="719" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F718">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A719" s="1">
         <v>717</v>
       </c>
@@ -21176,7 +21587,7 @@
         <v>2483</v>
       </c>
     </row>
-    <row r="720" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A720" s="1">
         <v>718</v>
       </c>
@@ -21193,7 +21604,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="721" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A721" s="1">
         <v>719</v>
       </c>
@@ -21210,7 +21621,7 @@
         <v>2485</v>
       </c>
     </row>
-    <row r="722" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A722" s="1">
         <v>720</v>
       </c>
@@ -21227,7 +21638,7 @@
         <v>2486</v>
       </c>
     </row>
-    <row r="723" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A723" s="1">
         <v>721</v>
       </c>
@@ -21244,7 +21655,7 @@
         <v>2487</v>
       </c>
     </row>
-    <row r="724" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A724" s="1">
         <v>722</v>
       </c>
@@ -21260,8 +21671,11 @@
       <c r="E724" t="s">
         <v>2488</v>
       </c>
-    </row>
-    <row r="725" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F724">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A725" s="1">
         <v>723</v>
       </c>
@@ -21277,8 +21691,11 @@
       <c r="E725" t="s">
         <v>2489</v>
       </c>
-    </row>
-    <row r="726" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F725">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A726" s="1">
         <v>724</v>
       </c>
@@ -21294,8 +21711,11 @@
       <c r="E726" t="s">
         <v>2490</v>
       </c>
-    </row>
-    <row r="727" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F726">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A727" s="1">
         <v>725</v>
       </c>
@@ -21312,7 +21732,7 @@
         <v>2491</v>
       </c>
     </row>
-    <row r="728" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A728" s="1">
         <v>726</v>
       </c>
@@ -21328,8 +21748,11 @@
       <c r="E728" t="s">
         <v>2492</v>
       </c>
-    </row>
-    <row r="729" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F728">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A729" s="1">
         <v>727</v>
       </c>
@@ -21346,7 +21769,7 @@
         <v>2493</v>
       </c>
     </row>
-    <row r="730" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A730" s="1">
         <v>728</v>
       </c>
@@ -21362,8 +21785,11 @@
       <c r="E730" t="s">
         <v>2494</v>
       </c>
-    </row>
-    <row r="731" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F730">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A731" s="1">
         <v>729</v>
       </c>
@@ -21380,7 +21806,7 @@
         <v>2495</v>
       </c>
     </row>
-    <row r="732" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A732" s="1">
         <v>730</v>
       </c>
@@ -21397,7 +21823,7 @@
         <v>2496</v>
       </c>
     </row>
-    <row r="733" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A733" s="1">
         <v>731</v>
       </c>
@@ -21414,7 +21840,7 @@
         <v>2497</v>
       </c>
     </row>
-    <row r="734" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A734" s="1">
         <v>732</v>
       </c>
@@ -21431,7 +21857,7 @@
         <v>2498</v>
       </c>
     </row>
-    <row r="735" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A735" s="1">
         <v>733</v>
       </c>
@@ -21448,7 +21874,7 @@
         <v>2499</v>
       </c>
     </row>
-    <row r="736" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A736" s="1">
         <v>734</v>
       </c>
@@ -21465,7 +21891,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="737" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A737" s="1">
         <v>735</v>
       </c>
@@ -21482,7 +21908,7 @@
         <v>2501</v>
       </c>
     </row>
-    <row r="738" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A738" s="1">
         <v>736</v>
       </c>
@@ -21499,7 +21925,7 @@
         <v>2502</v>
       </c>
     </row>
-    <row r="739" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A739" s="1">
         <v>737</v>
       </c>
@@ -21516,7 +21942,7 @@
         <v>2503</v>
       </c>
     </row>
-    <row r="740" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A740" s="1">
         <v>738</v>
       </c>
@@ -21532,8 +21958,11 @@
       <c r="E740" t="s">
         <v>2504</v>
       </c>
-    </row>
-    <row r="741" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F740">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A741" s="1">
         <v>739</v>
       </c>
@@ -21550,7 +21979,7 @@
         <v>2505</v>
       </c>
     </row>
-    <row r="742" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A742" s="1">
         <v>740</v>
       </c>
@@ -21567,7 +21996,7 @@
         <v>2506</v>
       </c>
     </row>
-    <row r="743" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A743" s="1">
         <v>741</v>
       </c>
@@ -21584,7 +22013,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="744" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A744" s="1">
         <v>742</v>
       </c>
@@ -21600,8 +22029,11 @@
       <c r="E744" t="s">
         <v>2508</v>
       </c>
-    </row>
-    <row r="745" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F744">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A745" s="1">
         <v>743</v>
       </c>
@@ -21617,8 +22049,11 @@
       <c r="E745" t="s">
         <v>2509</v>
       </c>
-    </row>
-    <row r="746" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F745">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A746" s="1">
         <v>744</v>
       </c>
@@ -21634,8 +22069,11 @@
       <c r="E746" t="s">
         <v>2510</v>
       </c>
-    </row>
-    <row r="747" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F746">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A747" s="1">
         <v>745</v>
       </c>
@@ -21652,7 +22090,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="748" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A748" s="1">
         <v>746</v>
       </c>
@@ -21669,7 +22107,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="749" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A749" s="1">
         <v>747</v>
       </c>
@@ -21686,7 +22124,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="750" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A750" s="1">
         <v>748</v>
       </c>
@@ -21703,7 +22141,7 @@
         <v>2514</v>
       </c>
     </row>
-    <row r="751" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A751" s="1">
         <v>749</v>
       </c>
@@ -21720,7 +22158,7 @@
         <v>2515</v>
       </c>
     </row>
-    <row r="752" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A752" s="1">
         <v>750</v>
       </c>
@@ -21737,7 +22175,7 @@
         <v>2516</v>
       </c>
     </row>
-    <row r="753" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A753" s="1">
         <v>751</v>
       </c>
@@ -21754,7 +22192,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="754" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A754" s="1">
         <v>752</v>
       </c>
@@ -21771,7 +22209,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="755" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A755" s="1">
         <v>753</v>
       </c>
@@ -21788,7 +22226,7 @@
         <v>2519</v>
       </c>
     </row>
-    <row r="756" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A756" s="1">
         <v>754</v>
       </c>
@@ -21805,7 +22243,7 @@
         <v>2520</v>
       </c>
     </row>
-    <row r="757" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A757" s="1">
         <v>755</v>
       </c>
@@ -21822,7 +22260,7 @@
         <v>2521</v>
       </c>
     </row>
-    <row r="758" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A758" s="1">
         <v>756</v>
       </c>
@@ -21839,7 +22277,7 @@
         <v>2522</v>
       </c>
     </row>
-    <row r="759" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A759" s="1">
         <v>757</v>
       </c>
@@ -21856,7 +22294,7 @@
         <v>2523</v>
       </c>
     </row>
-    <row r="760" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A760" s="1">
         <v>758</v>
       </c>
@@ -21873,7 +22311,7 @@
         <v>2524</v>
       </c>
     </row>
-    <row r="761" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A761" s="1">
         <v>759</v>
       </c>
@@ -21889,8 +22327,11 @@
       <c r="E761" t="s">
         <v>2525</v>
       </c>
-    </row>
-    <row r="762" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F761">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A762" s="1">
         <v>760</v>
       </c>
@@ -21907,7 +22348,7 @@
         <v>2526</v>
       </c>
     </row>
-    <row r="763" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A763" s="1">
         <v>761</v>
       </c>
@@ -21924,7 +22365,7 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="764" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A764" s="1">
         <v>762</v>
       </c>
@@ -21941,7 +22382,7 @@
         <v>2528</v>
       </c>
     </row>
-    <row r="765" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A765" s="1">
         <v>763</v>
       </c>
@@ -21958,7 +22399,7 @@
         <v>2529</v>
       </c>
     </row>
-    <row r="766" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A766" s="1">
         <v>764</v>
       </c>
@@ -21975,7 +22416,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="767" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A767" s="1">
         <v>765</v>
       </c>
@@ -21992,7 +22433,7 @@
         <v>2531</v>
       </c>
     </row>
-    <row r="768" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A768" s="1">
         <v>766</v>
       </c>
@@ -22009,7 +22450,7 @@
         <v>2532</v>
       </c>
     </row>
-    <row r="769" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A769" s="1">
         <v>767</v>
       </c>
@@ -22026,7 +22467,7 @@
         <v>2533</v>
       </c>
     </row>
-    <row r="770" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A770" s="1">
         <v>768</v>
       </c>
@@ -22043,7 +22484,7 @@
         <v>2534</v>
       </c>
     </row>
-    <row r="771" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A771" s="1">
         <v>769</v>
       </c>
@@ -22060,7 +22501,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="772" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A772" s="1">
         <v>770</v>
       </c>
@@ -22077,7 +22518,7 @@
         <v>2536</v>
       </c>
     </row>
-    <row r="773" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A773" s="1">
         <v>771</v>
       </c>
@@ -22094,7 +22535,7 @@
         <v>2537</v>
       </c>
     </row>
-    <row r="774" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A774" s="1">
         <v>772</v>
       </c>
@@ -22110,8 +22551,11 @@
       <c r="E774" t="s">
         <v>2538</v>
       </c>
-    </row>
-    <row r="775" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F774">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="775" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A775" s="1">
         <v>773</v>
       </c>
@@ -22127,8 +22571,11 @@
       <c r="E775" t="s">
         <v>2539</v>
       </c>
-    </row>
-    <row r="776" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F775">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="776" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A776" s="1">
         <v>774</v>
       </c>
@@ -22145,7 +22592,7 @@
         <v>2540</v>
       </c>
     </row>
-    <row r="777" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A777" s="1">
         <v>775</v>
       </c>
@@ -22162,7 +22609,7 @@
         <v>2541</v>
       </c>
     </row>
-    <row r="778" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A778" s="1">
         <v>776</v>
       </c>
@@ -22179,7 +22626,7 @@
         <v>2542</v>
       </c>
     </row>
-    <row r="779" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A779" s="1">
         <v>777</v>
       </c>
@@ -22195,8 +22642,11 @@
       <c r="E779" t="s">
         <v>2543</v>
       </c>
-    </row>
-    <row r="780" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F779">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A780" s="1">
         <v>778</v>
       </c>
@@ -22212,8 +22662,11 @@
       <c r="E780" t="s">
         <v>2544</v>
       </c>
-    </row>
-    <row r="781" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F780">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A781" s="1">
         <v>779</v>
       </c>
@@ -22230,7 +22683,7 @@
         <v>2545</v>
       </c>
     </row>
-    <row r="782" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A782" s="1">
         <v>780</v>
       </c>
@@ -22247,7 +22700,7 @@
         <v>2546</v>
       </c>
     </row>
-    <row r="783" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A783" s="1">
         <v>781</v>
       </c>
@@ -22263,8 +22716,11 @@
       <c r="E783" t="s">
         <v>2547</v>
       </c>
-    </row>
-    <row r="784" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F783">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A784" s="1">
         <v>782</v>
       </c>
@@ -22281,7 +22737,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="785" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A785" s="1">
         <v>783</v>
       </c>
@@ -22298,7 +22754,7 @@
         <v>2549</v>
       </c>
     </row>
-    <row r="786" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A786" s="1">
         <v>784</v>
       </c>
@@ -22315,7 +22771,7 @@
         <v>2550</v>
       </c>
     </row>
-    <row r="787" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A787" s="1">
         <v>785</v>
       </c>
@@ -22332,7 +22788,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="788" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A788" s="1">
         <v>786</v>
       </c>
@@ -22349,7 +22805,7 @@
         <v>2552</v>
       </c>
     </row>
-    <row r="789" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A789" s="1">
         <v>787</v>
       </c>
@@ -22365,8 +22821,11 @@
       <c r="E789" t="s">
         <v>2553</v>
       </c>
-    </row>
-    <row r="790" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F789">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A790" s="1">
         <v>788</v>
       </c>
@@ -22382,8 +22841,11 @@
       <c r="E790" t="s">
         <v>2554</v>
       </c>
-    </row>
-    <row r="791" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F790">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A791" s="1">
         <v>789</v>
       </c>
@@ -22399,8 +22861,11 @@
       <c r="E791" t="s">
         <v>2555</v>
       </c>
-    </row>
-    <row r="792" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F791">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A792" s="1">
         <v>790</v>
       </c>
@@ -22417,7 +22882,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="793" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A793" s="1">
         <v>791</v>
       </c>
@@ -22433,8 +22898,11 @@
       <c r="E793" t="s">
         <v>2557</v>
       </c>
-    </row>
-    <row r="794" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F793">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A794" s="1">
         <v>792</v>
       </c>
@@ -22451,7 +22919,7 @@
         <v>2558</v>
       </c>
     </row>
-    <row r="795" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A795" s="1">
         <v>793</v>
       </c>
@@ -22468,7 +22936,7 @@
         <v>2559</v>
       </c>
     </row>
-    <row r="796" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A796" s="1">
         <v>794</v>
       </c>
@@ -22485,7 +22953,7 @@
         <v>2560</v>
       </c>
     </row>
-    <row r="797" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A797" s="1">
         <v>795</v>
       </c>
@@ -22502,7 +22970,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="798" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A798" s="1">
         <v>796</v>
       </c>
@@ -22519,7 +22987,7 @@
         <v>2562</v>
       </c>
     </row>
-    <row r="799" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A799" s="1">
         <v>797</v>
       </c>
@@ -22536,7 +23004,7 @@
         <v>2563</v>
       </c>
     </row>
-    <row r="800" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A800" s="1">
         <v>798</v>
       </c>
@@ -22553,7 +23021,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="801" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A801" s="1">
         <v>799</v>
       </c>
@@ -22570,7 +23038,7 @@
         <v>2565</v>
       </c>
     </row>
-    <row r="802" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A802" s="1">
         <v>800</v>
       </c>
@@ -22587,7 +23055,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="803" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A803" s="1">
         <v>801</v>
       </c>
@@ -22604,7 +23072,7 @@
         <v>2567</v>
       </c>
     </row>
-    <row r="804" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A804" s="1">
         <v>802</v>
       </c>
@@ -22620,8 +23088,11 @@
       <c r="E804" t="s">
         <v>2568</v>
       </c>
-    </row>
-    <row r="805" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F804">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A805" s="1">
         <v>803</v>
       </c>
@@ -22637,8 +23108,11 @@
       <c r="E805" t="s">
         <v>2569</v>
       </c>
-    </row>
-    <row r="806" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F805">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A806" s="1">
         <v>804</v>
       </c>
@@ -22654,8 +23128,11 @@
       <c r="E806" t="s">
         <v>2570</v>
       </c>
-    </row>
-    <row r="807" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F806">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A807" s="1">
         <v>805</v>
       </c>
@@ -22672,7 +23149,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="808" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A808" s="1">
         <v>806</v>
       </c>
@@ -22688,8 +23165,11 @@
       <c r="E808" t="s">
         <v>2572</v>
       </c>
-    </row>
-    <row r="809" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F808">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A809" s="1">
         <v>807</v>
       </c>
@@ -22705,8 +23185,11 @@
       <c r="E809" t="s">
         <v>2573</v>
       </c>
-    </row>
-    <row r="810" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F809">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A810" s="1">
         <v>808</v>
       </c>
@@ -22722,8 +23205,11 @@
       <c r="E810" t="s">
         <v>2574</v>
       </c>
-    </row>
-    <row r="811" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F810">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A811" s="1">
         <v>809</v>
       </c>
@@ -22739,8 +23225,11 @@
       <c r="E811" t="s">
         <v>2575</v>
       </c>
-    </row>
-    <row r="812" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F811">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A812" s="1">
         <v>810</v>
       </c>
@@ -22756,8 +23245,11 @@
       <c r="E812" t="s">
         <v>2576</v>
       </c>
-    </row>
-    <row r="813" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F812">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A813" s="1">
         <v>811</v>
       </c>
@@ -22773,8 +23265,11 @@
       <c r="E813" t="s">
         <v>2577</v>
       </c>
-    </row>
-    <row r="814" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F813">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A814" s="1">
         <v>812</v>
       </c>
@@ -22790,8 +23285,11 @@
       <c r="E814" t="s">
         <v>2578</v>
       </c>
-    </row>
-    <row r="815" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F814">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A815" s="1">
         <v>813</v>
       </c>
@@ -22807,8 +23305,11 @@
       <c r="E815" t="s">
         <v>2579</v>
       </c>
-    </row>
-    <row r="816" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F815">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A816" s="1">
         <v>814</v>
       </c>
@@ -22825,7 +23326,7 @@
         <v>2580</v>
       </c>
     </row>
-    <row r="817" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A817" s="1">
         <v>815</v>
       </c>
@@ -22841,8 +23342,11 @@
       <c r="E817" t="s">
         <v>2581</v>
       </c>
-    </row>
-    <row r="818" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F817">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A818" s="1">
         <v>816</v>
       </c>
@@ -22858,8 +23362,11 @@
       <c r="E818" t="s">
         <v>2582</v>
       </c>
-    </row>
-    <row r="819" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F818">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A819" s="1">
         <v>817</v>
       </c>
@@ -22875,8 +23382,11 @@
       <c r="E819" t="s">
         <v>2583</v>
       </c>
-    </row>
-    <row r="820" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F819">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A820" s="1">
         <v>818</v>
       </c>
@@ -22892,8 +23402,11 @@
       <c r="E820" t="s">
         <v>2584</v>
       </c>
-    </row>
-    <row r="821" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F820">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A821" s="1">
         <v>819</v>
       </c>
@@ -22909,8 +23422,11 @@
       <c r="E821" t="s">
         <v>2585</v>
       </c>
-    </row>
-    <row r="822" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F821">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A822" s="1">
         <v>820</v>
       </c>
@@ -22927,7 +23443,7 @@
         <v>2586</v>
       </c>
     </row>
-    <row r="823" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A823" s="1">
         <v>821</v>
       </c>
@@ -22943,8 +23459,11 @@
       <c r="E823" t="s">
         <v>2587</v>
       </c>
-    </row>
-    <row r="824" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F823">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A824" s="1">
         <v>822</v>
       </c>
@@ -22960,8 +23479,11 @@
       <c r="E824" t="s">
         <v>2588</v>
       </c>
-    </row>
-    <row r="825" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F824">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A825" s="1">
         <v>823</v>
       </c>
@@ -22978,7 +23500,7 @@
         <v>2589</v>
       </c>
     </row>
-    <row r="826" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A826" s="1">
         <v>824</v>
       </c>
@@ -22994,8 +23516,11 @@
       <c r="E826" t="s">
         <v>2590</v>
       </c>
-    </row>
-    <row r="827" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F826">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A827" s="1">
         <v>825</v>
       </c>
@@ -23012,7 +23537,7 @@
         <v>2591</v>
       </c>
     </row>
-    <row r="828" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A828" s="1">
         <v>826</v>
       </c>
@@ -23029,7 +23554,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="829" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A829" s="1">
         <v>827</v>
       </c>
@@ -23046,7 +23571,7 @@
         <v>2593</v>
       </c>
     </row>
-    <row r="830" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A830" s="1">
         <v>828</v>
       </c>
@@ -23063,7 +23588,7 @@
         <v>2594</v>
       </c>
     </row>
-    <row r="831" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A831" s="1">
         <v>829</v>
       </c>
@@ -23079,8 +23604,11 @@
       <c r="E831" t="s">
         <v>2595</v>
       </c>
-    </row>
-    <row r="832" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F831">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A832" s="1">
         <v>830</v>
       </c>
@@ -23097,7 +23625,7 @@
         <v>2596</v>
       </c>
     </row>
-    <row r="833" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A833" s="1">
         <v>831</v>
       </c>
@@ -23113,8 +23641,11 @@
       <c r="E833" t="s">
         <v>2597</v>
       </c>
-    </row>
-    <row r="834" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F833">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A834" s="1">
         <v>832</v>
       </c>
@@ -23131,7 +23662,7 @@
         <v>2598</v>
       </c>
     </row>
-    <row r="835" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A835" s="1">
         <v>833</v>
       </c>
@@ -23147,8 +23678,11 @@
       <c r="E835" t="s">
         <v>2599</v>
       </c>
-    </row>
-    <row r="836" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F835">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A836" s="1">
         <v>834</v>
       </c>
@@ -23164,8 +23698,11 @@
       <c r="E836" t="s">
         <v>2600</v>
       </c>
-    </row>
-    <row r="837" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F836">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A837" s="1">
         <v>835</v>
       </c>
@@ -23181,8 +23718,11 @@
       <c r="E837" t="s">
         <v>2601</v>
       </c>
-    </row>
-    <row r="838" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F837">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A838" s="1">
         <v>836</v>
       </c>
@@ -23198,8 +23738,11 @@
       <c r="E838" t="s">
         <v>2602</v>
       </c>
-    </row>
-    <row r="839" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F838">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A839" s="1">
         <v>837</v>
       </c>
@@ -23216,7 +23759,7 @@
         <v>2603</v>
       </c>
     </row>
-    <row r="840" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A840" s="1">
         <v>838</v>
       </c>
@@ -23232,8 +23775,11 @@
       <c r="E840" t="s">
         <v>2604</v>
       </c>
-    </row>
-    <row r="841" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F840">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A841" s="1">
         <v>839</v>
       </c>
@@ -23250,7 +23796,7 @@
         <v>2605</v>
       </c>
     </row>
-    <row r="842" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A842" s="1">
         <v>840</v>
       </c>
@@ -23266,8 +23812,11 @@
       <c r="E842" t="s">
         <v>2606</v>
       </c>
-    </row>
-    <row r="843" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F842">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A843" s="1">
         <v>841</v>
       </c>
@@ -23284,7 +23833,7 @@
         <v>2607</v>
       </c>
     </row>
-    <row r="844" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A844" s="1">
         <v>842</v>
       </c>
@@ -23300,8 +23849,11 @@
       <c r="E844" t="s">
         <v>2608</v>
       </c>
-    </row>
-    <row r="845" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F844">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A845" s="1">
         <v>843</v>
       </c>
@@ -23318,7 +23870,7 @@
         <v>2609</v>
       </c>
     </row>
-    <row r="846" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A846" s="1">
         <v>844</v>
       </c>
@@ -23335,7 +23887,7 @@
         <v>2610</v>
       </c>
     </row>
-    <row r="847" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A847" s="1">
         <v>845</v>
       </c>
@@ -23352,7 +23904,7 @@
         <v>2611</v>
       </c>
     </row>
-    <row r="848" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A848" s="1">
         <v>846</v>
       </c>
@@ -23369,7 +23921,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="849" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A849" s="1">
         <v>847</v>
       </c>
@@ -23386,7 +23938,7 @@
         <v>2613</v>
       </c>
     </row>
-    <row r="850" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A850" s="1">
         <v>848</v>
       </c>
@@ -23403,7 +23955,7 @@
         <v>2614</v>
       </c>
     </row>
-    <row r="851" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A851" s="1">
         <v>849</v>
       </c>
@@ -23419,8 +23971,11 @@
       <c r="E851" t="s">
         <v>2615</v>
       </c>
-    </row>
-    <row r="852" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F851">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A852" s="1">
         <v>850</v>
       </c>
@@ -23437,7 +23992,7 @@
         <v>2616</v>
       </c>
     </row>
-    <row r="853" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A853" s="1">
         <v>851</v>
       </c>
@@ -23453,8 +24008,11 @@
       <c r="E853" t="s">
         <v>2617</v>
       </c>
-    </row>
-    <row r="854" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F853">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A854" s="1">
         <v>852</v>
       </c>
@@ -23470,8 +24028,11 @@
       <c r="E854" t="s">
         <v>2618</v>
       </c>
-    </row>
-    <row r="855" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F854">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A855" s="1">
         <v>853</v>
       </c>
@@ -23488,7 +24049,7 @@
         <v>2619</v>
       </c>
     </row>
-    <row r="856" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A856" s="1">
         <v>854</v>
       </c>
@@ -23505,7 +24066,7 @@
         <v>2620</v>
       </c>
     </row>
-    <row r="857" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A857" s="1">
         <v>855</v>
       </c>
@@ -23521,8 +24082,11 @@
       <c r="E857" t="s">
         <v>2621</v>
       </c>
-    </row>
-    <row r="858" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F857">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A858" s="1">
         <v>856</v>
       </c>
@@ -23539,7 +24103,7 @@
         <v>2622</v>
       </c>
     </row>
-    <row r="859" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A859" s="1">
         <v>857</v>
       </c>
@@ -23555,8 +24119,11 @@
       <c r="E859" t="s">
         <v>2623</v>
       </c>
-    </row>
-    <row r="860" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F859">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A860" s="1">
         <v>858</v>
       </c>
@@ -23572,8 +24139,11 @@
       <c r="E860" t="s">
         <v>2624</v>
       </c>
-    </row>
-    <row r="861" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F860">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A861" s="1">
         <v>859</v>
       </c>
@@ -23589,8 +24159,11 @@
       <c r="E861" t="s">
         <v>2625</v>
       </c>
-    </row>
-    <row r="862" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F861">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A862" s="1">
         <v>860</v>
       </c>
@@ -23606,8 +24179,11 @@
       <c r="E862" t="s">
         <v>2626</v>
       </c>
-    </row>
-    <row r="863" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F862">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A863" s="1">
         <v>861</v>
       </c>
@@ -23623,8 +24199,11 @@
       <c r="E863" t="s">
         <v>2627</v>
       </c>
-    </row>
-    <row r="864" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F863">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A864" s="1">
         <v>862</v>
       </c>
@@ -23641,7 +24220,7 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="865" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A865" s="1">
         <v>863</v>
       </c>
@@ -23658,7 +24237,7 @@
         <v>2629</v>
       </c>
     </row>
-    <row r="866" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A866" s="1">
         <v>864</v>
       </c>
@@ -23674,8 +24253,11 @@
       <c r="E866" t="s">
         <v>2630</v>
       </c>
-    </row>
-    <row r="867" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F866">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A867" s="1">
         <v>865</v>
       </c>
@@ -23691,8 +24273,11 @@
       <c r="E867" t="s">
         <v>2631</v>
       </c>
-    </row>
-    <row r="868" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F867">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A868" s="1">
         <v>866</v>
       </c>
@@ -23708,8 +24293,11 @@
       <c r="E868" t="s">
         <v>2632</v>
       </c>
-    </row>
-    <row r="869" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F868">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A869" s="1">
         <v>867</v>
       </c>
@@ -23726,7 +24314,7 @@
         <v>2633</v>
       </c>
     </row>
-    <row r="870" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A870" s="1">
         <v>868</v>
       </c>
@@ -23743,7 +24331,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="871" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A871" s="1">
         <v>869</v>
       </c>
@@ -23760,7 +24348,7 @@
         <v>2635</v>
       </c>
     </row>
-    <row r="872" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A872" s="1">
         <v>870</v>
       </c>
@@ -23777,7 +24365,7 @@
         <v>2636</v>
       </c>
     </row>
-    <row r="873" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A873" s="1">
         <v>871</v>
       </c>
@@ -23793,8 +24381,11 @@
       <c r="E873" t="s">
         <v>2637</v>
       </c>
-    </row>
-    <row r="874" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F873">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A874" s="1">
         <v>872</v>
       </c>
@@ -23810,8 +24401,11 @@
       <c r="E874" t="s">
         <v>2638</v>
       </c>
-    </row>
-    <row r="875" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F874">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A875" s="1">
         <v>873</v>
       </c>
@@ -23828,7 +24422,7 @@
         <v>2639</v>
       </c>
     </row>
-    <row r="876" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A876" s="1">
         <v>874</v>
       </c>
@@ -23844,8 +24438,11 @@
       <c r="E876" t="s">
         <v>2640</v>
       </c>
-    </row>
-    <row r="877" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F876">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A877" s="1">
         <v>875</v>
       </c>
@@ -23861,8 +24458,11 @@
       <c r="E877" t="s">
         <v>2641</v>
       </c>
-    </row>
-    <row r="878" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F877">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A878" s="1">
         <v>876</v>
       </c>
@@ -23878,8 +24478,11 @@
       <c r="E878" t="s">
         <v>2642</v>
       </c>
-    </row>
-    <row r="879" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F878">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A879" s="1">
         <v>877</v>
       </c>
@@ -23895,8 +24498,11 @@
       <c r="E879" t="s">
         <v>2643</v>
       </c>
-    </row>
-    <row r="880" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F879">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A880" s="1">
         <v>878</v>
       </c>
@@ -23912,8 +24518,11 @@
       <c r="E880" t="s">
         <v>2644</v>
       </c>
-    </row>
-    <row r="881" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F880">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A881" s="1">
         <v>879</v>
       </c>
@@ -23929,8 +24538,11 @@
       <c r="E881" t="s">
         <v>2645</v>
       </c>
-    </row>
-    <row r="882" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F881">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A882" s="1">
         <v>880</v>
       </c>
@@ -23946,8 +24558,11 @@
       <c r="E882" t="s">
         <v>2646</v>
       </c>
-    </row>
-    <row r="883" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F882">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A883" s="1">
         <v>881</v>
       </c>
@@ -23964,7 +24579,7 @@
         <v>2647</v>
       </c>
     </row>
-    <row r="884" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A884" s="1">
         <v>882</v>
       </c>
@@ -23980,8 +24595,11 @@
       <c r="E884" t="s">
         <v>2648</v>
       </c>
-    </row>
-    <row r="885" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F884">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="885" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A885" s="1">
         <v>883</v>
       </c>
@@ -23997,8 +24615,11 @@
       <c r="E885" t="s">
         <v>2649</v>
       </c>
-    </row>
-    <row r="886" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F885">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="886" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A886" s="1">
         <v>884</v>
       </c>
@@ -24013,6 +24634,9 @@
       </c>
       <c r="E886" t="s">
         <v>2650</v>
+      </c>
+      <c r="F886">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
